--- a/test/templates/test-named-tables.xlsx
+++ b/test/templates/test-named-tables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571C467-1A47-4A37-B5FB-A7C461CE66F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <definedName name="RangeRightOfTable">Tables!$E$12:$F$12</definedName>
     <definedName name="RightOfTable">Tables!$D$7</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,24 +43,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>${table:ages.name}</t>
-  </si>
-  <si>
-    <t>${table:ages.age}</t>
-  </si>
-  <si>
-    <t>${days}</t>
-  </si>
-  <si>
-    <t>${table:hours.name}</t>
-  </si>
-  <si>
-    <t>${table:hours.days}</t>
-  </si>
-  <si>
-    <t>${progress}</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -77,12 +65,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{table:ages.name}</t>
+  </si>
+  <si>
+    <t>{table:ages.age}</t>
+  </si>
+  <si>
+    <t>{table:hours.name}</t>
+  </si>
+  <si>
+    <t>{table:hours.days}</t>
+  </si>
+  <si>
+    <t>{progress}</t>
+  </si>
+  <si>
+    <t>{days}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -156,37 +162,45 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Ages" displayName="Ages" ref="B4:C6" totalsRowCount="1">
-  <autoFilter ref="B4:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Ages" displayName="Ages" ref="B4:C6" totalsRowCount="1">
+  <autoFilter ref="B4:C5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Age" totalsRowFunction="count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Age" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Days" displayName="Days" ref="B7:C8" totalsRowShown="0">
-  <autoFilter ref="B7:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Days" displayName="Days" ref="B7:C8" totalsRowShown="0">
+  <autoFilter ref="B7:C8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="${days}"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="{days}"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Status" displayName="Status" ref="C12:D14" totalsRowShown="0">
-  <autoFilter ref="C12:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Status" displayName="Status" ref="C12:D14" totalsRowShown="0">
+  <autoFilter ref="C12:D14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Colour"/>
-    <tableColumn id="2" name="Status"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Colour"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -513,28 +527,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20" thickBot="1">
+    <row r="2" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:6" ht="16" thickTop="1"/>
-    <row r="4" spans="2:6">
+    <row r="3" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -542,29 +556,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f>SUBTOTAL(103,Ages[Age])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>101</v>
@@ -574,29 +588,29 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>103</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>107</v>
@@ -605,28 +619,28 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>105</v>
       </c>
@@ -634,9 +648,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
